--- a/PO Logboek Lucas-Wout.xlsx
+++ b/PO Logboek Lucas-Wout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcou-my.sharepoint.com/personal/110088_student_niftarlake_nl/Documents/Informatica/Klas 4/P3/2025 H4 P3 Festivalstickets LucasB.WoutS/FestivalTickets C15/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcou-my.sharepoint.com/personal/110088_student_niftarlake_nl/Documents/Informatica/Klas 4/P3/2025 H4 P3 Festivalstickets LucasB.WoutS/PO Backup 10 april/FestivalTickets C15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{BDC3DD01-E881-4D83-9232-980E72DFBEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{394E98EE-CEBF-4FF6-80E7-C8AE319C2309}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{11F1D8E9-2F8B-453D-B154-E21D8B0807BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2218F83A-785D-4D60-8950-0CD2E738532C}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jgxkeo6clqsOlfdjIFmkGrpGT97XbH9NXjwLEnjXgyd31ZvI7+4PmWOOIKZwOVWKtV+7x0fl6HulnI230DvbKA==" workbookSaltValue="pOSOqV2BrTVL+67zF/Hq3g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{32323077-B544-473C-84B1-FFC2ECAE1CD0}"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Logboek PO informatica</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>Hoofdpagina design + tekst</t>
+  </si>
+  <si>
+    <t>Menu werkt volgens de norm</t>
+  </si>
+  <si>
+    <t>Naam van labels in variabele veranderen en zetten + in private strings zetten</t>
+  </si>
+  <si>
+    <t>Invoervelden werken + wordt in label weergegeven</t>
+  </si>
+  <si>
+    <t>Begin programmeren hoofdvenster</t>
+  </si>
+  <si>
+    <t>Resetknop + Design</t>
+  </si>
+  <si>
+    <t>Berekenen/Totale prijs werkt</t>
   </si>
 </sst>
 </file>
@@ -580,10 +598,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
@@ -885,7 +899,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +934,7 @@
       <c r="A2" s="40"/>
       <c r="B2" s="41">
         <f ca="1">NOW()</f>
-        <v>45754.967769097224</v>
+        <v>45757.746860763888</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="8"/>
@@ -987,7 +1001,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="13">
         <f>SUMIF(B8:B501,B4,D8:D503)+SUMIF(B8:B501,"Samen",D8:D503)</f>
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="K8" s="38" t="str">
         <f>IF(SUM($D$9:$D$502)&lt;120,"",IF(AND($B$6&lt;&gt;"",(I11-10%)&gt;MIN($I$11:$I$13)), "LET OP: " &amp; B4 &amp; " heeft veel meer werk gedaan dan 1 of 2 anderen!",""))</f>
@@ -1017,7 +1031,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="17">
         <f>SUMIF(B9:B502,B5,D9:D504)+SUMIF(B9:B502,"Samen",D9:D504)</f>
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="K9" s="38" t="str">
         <f>IF(SUM($D$9:$D$502)&lt;120,"",IF(AND($B$6&lt;&gt;"",(I12-10%)&gt;MIN($I$11:$I$13)), "LET OP: " &amp; B5 &amp; " heeft veel meer werk gedaan dan 1 of 2 anderen!",""))</f>
@@ -1078,7 +1092,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="20">
         <f>IF(SUM($I$8:$I$10)=0,0,I8/(SUM($I$8:$I$10)))</f>
-        <v>0.59340659340659341</v>
+        <v>0.58503401360544216</v>
       </c>
       <c r="K11" s="39" t="str">
         <f>IF(AND(K8="",K9="",K10=""),"","Dat betekent dat je een gesprek met je docent kunt verwachten")</f>
@@ -1108,7 +1122,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="23">
         <f>IF(SUM($I$8:$I$10)=0,0,I9/(SUM($I$8:$I$10)))</f>
-        <v>0.40659340659340659</v>
+        <v>0.41496598639455784</v>
       </c>
       <c r="K12" s="38" t="str">
         <f>IF(K11="","", "als je nu je PO zou inleveren.")</f>
@@ -1154,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="28">
-        <v>45782</v>
+        <v>45780</v>
       </c>
       <c r="D14" s="29">
         <v>25</v>
@@ -1172,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="28">
-        <v>45782</v>
+        <v>45780</v>
       </c>
       <c r="D15" s="29">
         <v>25</v>
@@ -1190,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="28">
-        <v>45843</v>
+        <v>45842</v>
       </c>
       <c r="D16" s="29">
         <v>20</v>
@@ -1208,10 +1222,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="28">
-        <v>45843</v>
+        <v>45842</v>
       </c>
       <c r="D17" s="29">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F17" s="38" t="str">
         <f>IF(F16="","", "Dat betekent dat je een gesprek met je docent kunt verwachten als je nu je PO zou inleveren.")</f>
@@ -1219,48 +1233,96 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="28">
+        <v>45873</v>
+      </c>
+      <c r="D18" s="29">
+        <v>5</v>
+      </c>
       <c r="F18" s="38" t="str">
         <f>IF(F17="","", "Zorg voor een eerlijk verdeelde werklast voordat je je PO inlevert.")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28">
+        <v>45873</v>
+      </c>
+      <c r="D19" s="29">
+        <v>15</v>
+      </c>
       <c r="F19" s="38" t="str">
         <f>IF(F17="","", "Je al gemaakte uren achteraf hier aanpassen wordt beschouwd als fraude en levert een 1 op.")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="28">
+        <v>45873</v>
+      </c>
+      <c r="D20" s="29">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="28">
+        <v>45873</v>
+      </c>
+      <c r="D21" s="29">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
+      <c r="A22" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="28">
+        <v>45934</v>
+      </c>
+      <c r="D22" s="29">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="28">
+        <v>45934</v>
+      </c>
+      <c r="D23" s="29">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
@@ -4262,15 +4324,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D096F9D58E11CA4389A85E497BDE9A33" ma:contentTypeVersion="27" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="853564d7223ced5a86169dd3d56d8cf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75646cc3-dafe-46cb-ad8a-0c1662b34ce6" xmlns:ns3="63cc5f53-95b1-4bae-9339-83b3346e6055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e225dcf5872c518217f9eebb047d451" ns2:_="" ns3:_="">
     <xsd:import namespace="75646cc3-dafe-46cb-ad8a-0c1662b34ce6"/>
@@ -4513,15 +4566,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07D85A10-A48D-4F4B-806D-9FE0F03EA81F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86809453-1F64-4EA5-8AE2-426234A435C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4538,4 +4592,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07D85A10-A48D-4F4B-806D-9FE0F03EA81F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>